--- a/Wind.xlsx
+++ b/Wind.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
   <sheets>
-    <sheet name="Wind Generation - TWh" sheetId="54" r:id="rId1"/>
+    <sheet name="Wind" sheetId="54" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="\I">#REF!</definedName>
     <definedName name="\P">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wind Generation - TWh'!$A$1:$AE$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wind!$A$1:$AE$44</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="aa">#REF!</definedName>
     <definedName name="BoxPlot">"BoxPlot"</definedName>
@@ -282,12 +282,6 @@
     <t>Asia Pacific</t>
   </si>
   <si>
-    <t>Регион</t>
-  </si>
-  <si>
-    <t>Страна</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -298,6 +292,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AE45" sqref="AE45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.25"/>
@@ -964,10 +964,10 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="15">
         <v>1995</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="43" spans="1:31">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <v>0.19600000000000001</v>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="44" spans="1:31">
       <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -5144,10 +5144,10 @@
     </row>
     <row r="45" spans="1:31">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" s="1">
         <v>13375.243963405301</v>
